--- a/var/import/ordersnew.xlsx
+++ b/var/import/ordersnew.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/agent-x/var/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devops\Desktop\Magento Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240E967-7305-9C45-942F-4E025C2ADA61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{E1CF55C4-5BF4-F94B-A57C-87A2DB960ADC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>email</t>
   </si>
@@ -112,12 +111,21 @@
   </si>
   <si>
     <t>Rajendren</t>
+  </si>
+  <si>
+    <t>fcmtest@gmail</t>
+  </si>
+  <si>
+    <t>AGNT14928:20</t>
+  </si>
+  <si>
+    <t>Notificaition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -462,16 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8F4B26-5545-EC44-A41C-F2B8B67BD739}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -529,7 +535,7 @@
         <v>9940263876</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -558,7 +564,7 @@
         <v>9678432100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -585,9 +591,39 @@
       </c>
       <c r="I4">
         <v>9678525123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>621356</v>
+      </c>
+      <c r="I5">
+        <v>9840297767</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/var/import/ordersnew.xlsx
+++ b/var/import/ordersnew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devops\Desktop\Magento Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Pdc\var\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -113,13 +113,16 @@
     <t>Rajendren</t>
   </si>
   <si>
-    <t>fcmtest@gmail</t>
-  </si>
-  <si>
     <t>AGNT14928:20</t>
   </si>
   <si>
     <t>Notificaition</t>
+  </si>
+  <si>
+    <t>Tet</t>
+  </si>
+  <si>
+    <t>fcmtest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -595,25 +598,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>621356</v>

--- a/var/import/ordersnew.xlsx
+++ b/var/import/ordersnew.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -122,7 +122,7 @@
     <t>Tet</t>
   </si>
   <si>
-    <t>fcmtest@gmail.com</t>
+    <t>fcmtest@gmail</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,6 +625,93 @@
         <v>9840297767</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>600114</v>
+      </c>
+      <c r="I6">
+        <v>9940263876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>235450</v>
+      </c>
+      <c r="I7">
+        <v>9678432100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>585623</v>
+      </c>
+      <c r="I8">
+        <v>9678525123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/var/import/ordersnew.xlsx
+++ b/var/import/ordersnew.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -474,9 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -712,6 +714,35 @@
         <v>9678525123</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>621356</v>
+      </c>
+      <c r="I9">
+        <v>9840297767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/var/import/ordersnew.xlsx
+++ b/var/import/ordersnew.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -474,11 +474,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -714,35 +712,6 @@
         <v>9678525123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9">
-        <v>621356</v>
-      </c>
-      <c r="I9">
-        <v>9840297767</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
